--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,22 +22,31 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002708</t>
+  </si>
+  <si>
     <t>008884</t>
   </si>
   <si>
     <t>008885</t>
   </si>
   <si>
-    <t>002708</t>
+    <t>大摩健康产业混合</t>
   </si>
   <si>
     <t>博远博锐混合A</t>
@@ -46,19 +55,34 @@
     <t>博远博锐混合C</t>
   </si>
   <si>
-    <t>大摩健康产业混合</t>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>94.58</t>
   </si>
   <si>
     <t>74.93</t>
   </si>
   <si>
-    <t>94.58</t>
+    <t>6.17</t>
   </si>
   <si>
     <t>3.50</t>
   </si>
   <si>
-    <t>6.17</t>
+    <t>0.4535</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>0.0010</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,65 +462,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002708</t>
-  </si>
-  <si>
-    <t>008884</t>
-  </si>
-  <si>
-    <t>008885</t>
-  </si>
-  <si>
-    <t>大摩健康产业混合</t>
-  </si>
-  <si>
-    <t>博远博锐混合A</t>
-  </si>
-  <si>
-    <t>博远博锐混合C</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>94.58</t>
-  </si>
-  <si>
-    <t>74.93</t>
-  </si>
-  <si>
-    <t>6.17</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>0.4535</t>
-  </si>
-  <si>
-    <t>0.0172</t>
-  </si>
-  <si>
-    <t>0.0010</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6803</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2018,4 +2019,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.95</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.77</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2090,13 +2155,779 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2842,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,17 +2854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2873,14 +2894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.31</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2889,14 +2932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.95</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2905,14 +2970,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.77</v>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2921,13 +3008,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3393,7 +3394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3404,17 +3405,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3424,14 +3445,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.74</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3440,14 +3483,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.31</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3456,14 +3521,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.95</v>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3472,14 +3559,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.77</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3488,13 +3597,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0708</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002708</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大摩健康产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4535</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.92</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6764</t>
+          <t>2.5324</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -725,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.16</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0148</t>
+          <t>2.2629</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -753,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.65</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9227</t>
+          <t>1.9562</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -801,22 +763,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1187</t>
+          <t>1.2712</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -829,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010090</t>
+          <t>012155</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合A</t>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6803</t>
+          <t>1.0760</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -867,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2143</t>
+          <t>1.0708</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -905,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.3655</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -943,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>010090</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>中信建投医药健康混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.3293</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -981,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.69</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1019,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.1993</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1057,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>009898</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>民生加银医药健康股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>76.69</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1095,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>88.73</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1133,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>003032</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>平安医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1171,36 +1133,300 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0473</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1275,26 +1501,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>25.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3280</t>
+          <t>2.5552</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1313,26 +1539,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.24</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3044</t>
+          <t>1.7418</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1341,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>015122</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>汇添富医疗服务灵活配置混合D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7116</t>
+          <t>1.7418</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1379,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007553</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合C</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>36.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>72.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5780</t>
+          <t>1.3700</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1417,36 +1643,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010090</t>
+          <t>007553</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合A</t>
+          <t>中信建投医改灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7447</t>
+          <t>1.3273</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1455,36 +1681,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>012155</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>71.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1493,36 +1719,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.8380</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1531,36 +1757,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>010090</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>中信建投医药健康混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1857</t>
+          <t>0.5311</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1569,36 +1795,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1745</t>
+          <t>0.3188</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1607,32 +1833,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.2225</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1645,36 +1871,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合C</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.1691</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1683,36 +1909,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1721,22 +1947,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>012156</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>71.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1746,277 +1972,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.43</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009502</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保创新医药股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>78.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007613</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉合医疗健康混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009503</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保创新医药股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006157</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通量化核心优选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2865,7 +2825,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2905,26 +2865,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.68</t>
+          <t>32.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5552</t>
+          <t>3.3280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2943,26 +2903,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>49.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7418</t>
+          <t>2.3044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2971,36 +2931,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015122</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合D</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7418</t>
+          <t>1.7116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3009,36 +2969,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>007553</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>中信建投医改灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.73</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.35</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3700</t>
+          <t>1.5780</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3047,36 +3007,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007553</t>
+          <t>010090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合C</t>
+          <t>中信建投医药健康混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3273</t>
+          <t>0.7447</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3085,36 +3045,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012155</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.54</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8677</t>
+          <t>0.3789</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3123,36 +3083,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010599</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.34</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8380</t>
+          <t>0.2709</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3161,36 +3121,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010090</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合A</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5311</t>
+          <t>0.1857</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3199,36 +3159,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.1745</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3237,32 +3197,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3275,36 +3235,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>西部利得量化优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1691</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3313,36 +3273,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011259</t>
+          <t>005043</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
+          <t>国寿安保健康科学混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3351,22 +3311,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012156</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.54</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3376,11 +3336,277 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3415,7 +3641,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3455,22 +3681,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>32.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5324</t>
+          <t>2.6764</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3493,26 +3719,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.91</t>
+          <t>53.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2629</t>
+          <t>2.0148</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3521,32 +3747,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>98.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9562</t>
+          <t>1.9227</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3569,22 +3795,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2712</t>
+          <t>1.1187</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3597,36 +3823,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012155</t>
+          <t>010090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+          <t>中信建投医药健康混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0760</t>
+          <t>0.6803</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3635,36 +3861,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010599</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0708</t>
+          <t>0.2143</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3673,36 +3899,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3655</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3711,36 +3937,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010090</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合A</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3293</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3749,36 +3975,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>76.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2179</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3787,36 +4013,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1993</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3825,36 +4051,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009898</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>民生加银医药健康股票</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>76.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0976</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3863,36 +4089,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0670</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3901,36 +4127,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003032</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安医疗健康灵活配置混合</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3939,300 +4165,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011259</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012156</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>015052</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方红医疗升级股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>64.63</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>015053</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东方红医疗升级股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>64.63</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>015121</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014758</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>015122</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4246,128 +4208,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.66</v>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.74</v>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.47</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>11.66</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>11.31</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>10.95</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>8.77</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -583,6 +600,780 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0643</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1977,820 +2768,6 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001417</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7828</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007553</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4436</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010481</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7570</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010599</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1903</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6467</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5136</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010045</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>71.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4797</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010091</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3218</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3075</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002408</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富稳健汇盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2478</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>163001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1645</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>506008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011259</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>75.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012793</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005405</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005406</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2802,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2855,36 +2832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002408</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合A</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3280</t>
+          <t>2.7828</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2893,36 +2870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>007553</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>中信建投医改灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.24</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3044</t>
+          <t>2.4436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2931,36 +2908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>77.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7116</t>
+          <t>1.7570</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2969,36 +2946,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007553</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合C</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5780</t>
+          <t>1.1903</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3017,22 +2994,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7447</t>
+          <t>0.6467</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3055,26 +3032,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>0.5136</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3083,36 +3060,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>010045</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>汇添富稳健添盈一年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>71.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.4797</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3121,36 +3098,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1857</t>
+          <t>0.3218</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3159,36 +3136,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1745</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3197,36 +3174,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>002408</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>中信建投医改灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.2487</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3235,36 +3212,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>010439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合C</t>
+          <t>汇添富稳健汇盈一年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3273,36 +3250,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.1645</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3311,36 +3288,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>506008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>长城科创两年定开混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>50.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3349,36 +3326,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3387,36 +3364,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.43</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3425,36 +3402,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3463,36 +3440,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3501,36 +3478,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>012793</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>长城科创两年定开混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>50.88</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -3539,36 +3516,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009503</t>
+          <t>005405</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票C</t>
+          <t>中金金序量化蓝筹混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -3577,36 +3554,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>005406</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>中金金序量化蓝筹混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3615,6 +3590,822 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4202,7 +4993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688356-键凯科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>7.87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>11.66</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>11.31</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>10.95</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>8.77</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5963</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1373,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2225,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2768,820 +3525,6 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001417</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7828</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007553</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4436</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010481</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7570</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010599</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1903</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6467</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5136</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010045</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>71.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4797</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010091</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3218</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3075</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002408</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富稳健汇盈一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2478</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>163001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1645</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>506008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011259</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>75.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012793</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005405</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005406</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3559,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3646,36 +3589,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002408</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合A</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3280</t>
+          <t>2.7828</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3684,36 +3627,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>007553</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>中信建投医改灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.24</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3044</t>
+          <t>2.4436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3722,36 +3665,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>77.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7116</t>
+          <t>1.7570</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3760,36 +3703,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007553</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投医改灵活配置混合C</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5780</t>
+          <t>1.1903</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3808,22 +3751,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7447</t>
+          <t>0.6467</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3846,26 +3789,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>0.5136</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3874,36 +3817,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010091</t>
+          <t>010045</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投医药健康混合C</t>
+          <t>汇添富稳健添盈一年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>71.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.4797</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3912,36 +3855,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1857</t>
+          <t>0.3218</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3950,36 +3893,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1745</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3988,36 +3931,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>002408</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>中信建投医改灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.2487</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4026,36 +3969,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>010439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合C</t>
+          <t>汇添富稳健汇盈一年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4064,36 +4007,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.1645</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -4102,36 +4045,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>506008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>长城科创两年定开混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>50.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4140,36 +4083,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4178,36 +4121,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.43</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -4216,36 +4159,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4254,36 +4197,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -4292,36 +4235,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>012793</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>长城科创两年定开混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>50.88</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -4330,36 +4273,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009503</t>
+          <t>005405</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票C</t>
+          <t>中金金序量化蓝筹混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -4368,36 +4311,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>005406</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>中金金序量化蓝筹混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4406,6 +4347,822 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4993,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
